--- a/Auto-Excel/InventarioV2.xlsx
+++ b/Auto-Excel/InventarioV2.xlsx
@@ -524,7 +524,7 @@
         <v>5.25</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>50</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="3">
@@ -548,7 +548,7 @@
         <v>3.15</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +572,7 @@
         <v>4.2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>2.1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -620,7 +620,7 @@
         <v>1.05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>25</v>
+        <v>26.25</v>
       </c>
     </row>
   </sheetData>

--- a/Auto-Excel/InventarioV2.xlsx
+++ b/Auto-Excel/InventarioV2.xlsx
@@ -33,7 +33,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -50,6 +50,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="000000FF"/>
         <bgColor rgb="000000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,6 +95,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,14 +526,14 @@
           <t>Descripción A</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>10</v>
+      <c r="D2" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>5.25</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>52.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="3">
@@ -565,14 +574,14 @@
           <t>Descripción C</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>15</v>
+      <c r="D4" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>4.2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>63</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="5">

--- a/Auto-Excel/InventarioV2.xlsx
+++ b/Auto-Excel/InventarioV2.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventario principal" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reporte 2025-04-11" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,11 +26,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -42,8 +47,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -54,8 +59,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -85,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -96,12 +101,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -466,11 +470,11 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -526,14 +530,14 @@
           <t>Descripción A</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
+      <c r="D2" s="2" t="n">
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -554,10 +558,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -574,14 +578,14 @@
           <t>Descripción C</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>3</v>
+      <c r="D4" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>12.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -602,10 +606,10 @@
         <v>30</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -626,10 +630,210 @@
         <v>25</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>26.25</v>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Cantidad</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Precio Unitario</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Precio Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Producto A</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Descripción A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Producto B</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Descripción B</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Producto C</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Descripción C</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Producto D</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Descripción D</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Producto E</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Descripción E</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Estadísticas</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Productos Diferentes:</t>
+        </is>
+      </c>
+      <c r="B9">
+        <f>COUNTA(B2:B6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Total Productos:</t>
+        </is>
+      </c>
+      <c r="B10">
+        <f>SUM(D2:B6)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Auto-Excel/InventarioV2.xlsx
+++ b/Auto-Excel/InventarioV2.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>5</v>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>4</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
